--- a/spliced/walkingToRunning/2023-04-03_17-01-10/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-01-10/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.276309442297315</v>
+        <v>-0.4181592197061701</v>
       </c>
       <c r="B2" t="n">
-        <v>1.367937100267883</v>
+        <v>4.999134939407615</v>
       </c>
       <c r="C2" t="n">
-        <v>1.829167963188405</v>
+        <v>4.467728652686705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4181592197061701</v>
+        <v>-0.2939812507584775</v>
       </c>
       <c r="B3" t="n">
-        <v>4.999134939407615</v>
+        <v>1.309815360006858</v>
       </c>
       <c r="C3" t="n">
-        <v>4.467728652686705</v>
+        <v>2.089699776373152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2939812507584775</v>
+        <v>0.6610930461749918</v>
       </c>
       <c r="B4" t="n">
-        <v>1.309815360006858</v>
+        <v>-2.38056925078418</v>
       </c>
       <c r="C4" t="n">
-        <v>2.089699776373152</v>
+        <v>-1.609635165918661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6610930461749918</v>
+        <v>1.810891748588788</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.38056925078418</v>
+        <v>-1.378563615763306</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.609635165918661</v>
+        <v>-2.978032114349805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.810891748588788</v>
+        <v>2.31189947707626</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.378563615763306</v>
+        <v>-2.220112597830942</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.978032114349805</v>
+        <v>-3.509698769756517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.31189947707626</v>
+        <v>-4.20486067611483</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.220112597830942</v>
+        <v>-2.35995082988918</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.509698769756517</v>
+        <v>3.951543032566025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.20486067611483</v>
+        <v>-6.209334919385752</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.35995082988918</v>
+        <v>-1.759963089060472</v>
       </c>
       <c r="C8" t="n">
-        <v>3.951543032566025</v>
+        <v>10.33535447298917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.209334919385752</v>
+        <v>1.966778721764825</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.759963089060472</v>
+        <v>7.234104103016977</v>
       </c>
       <c r="C9" t="n">
-        <v>10.33535447298917</v>
+        <v>2.021741985160567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.966778721764825</v>
+        <v>2.757100457342962</v>
       </c>
       <c r="B10" t="n">
-        <v>7.234104103016977</v>
+        <v>-3.825466089159538</v>
       </c>
       <c r="C10" t="n">
-        <v>2.021741985160567</v>
+        <v>-3.918381726630348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.757100457342962</v>
+        <v>6.505795770716528</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.825466089159538</v>
+        <v>-1.982219981255937</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.918381726630348</v>
+        <v>-9.447731205236206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.505795770716528</v>
+        <v>1.019708882982564</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.982219981255937</v>
+        <v>-2.124502529607678</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.447731205236206</v>
+        <v>-4.567799980673901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.019708882982564</v>
+        <v>-3.90443126063479</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.124502529607678</v>
+        <v>-6.289577069683729</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.567799980673901</v>
+        <v>0.08947662911672927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.90443126063479</v>
+        <v>-4.737582387211194</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.289577069683729</v>
+        <v>1.679735990328154</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08947662911672927</v>
+        <v>5.945494293052519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.737582387211194</v>
+        <v>-2.958322148456745</v>
       </c>
       <c r="B15" t="n">
-        <v>1.679735990328154</v>
+        <v>5.940943116339433</v>
       </c>
       <c r="C15" t="n">
-        <v>5.945494293052519</v>
+        <v>1.412405640165503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.958322148456745</v>
+        <v>-3.080484191948098</v>
       </c>
       <c r="B16" t="n">
-        <v>5.940943116339433</v>
+        <v>14.34931452920528</v>
       </c>
       <c r="C16" t="n">
-        <v>1.412405640165503</v>
+        <v>-6.689891151178712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.080484191948098</v>
+        <v>3.206049725274078</v>
       </c>
       <c r="B17" t="n">
-        <v>14.34931452920528</v>
+        <v>-2.906924434911418</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.689891151178712</v>
+        <v>-3.371373475154916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.206049725274078</v>
+        <v>1.706316604792587</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.906924434911418</v>
+        <v>-3.271737626170626</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.371373475154916</v>
+        <v>-8.0454896521347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.706316604792587</v>
+        <v>-3.738767730855505</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.271737626170626</v>
+        <v>0.06012086237769707</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.0454896521347</v>
+        <v>3.632486434740414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.738767730855505</v>
+        <v>-3.090678747569279</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06012086237769707</v>
+        <v>1.963554282054647</v>
       </c>
       <c r="C20" t="n">
-        <v>3.632486434740414</v>
+        <v>5.732710114149367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.090678747569279</v>
+        <v>-3.92490029335021</v>
       </c>
       <c r="B21" t="n">
-        <v>1.963554282054647</v>
+        <v>8.097008705139087</v>
       </c>
       <c r="C21" t="n">
-        <v>5.732710114149367</v>
+        <v>-0.6271078586577614</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.013831214370013</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11.75312601071651</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-9.512279387946442</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.26375397343502</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.259433144720926</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.911592367653529</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.293022926722733</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-6.641965772504008</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.101227296847053</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.6729963912028092</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-6.046104440065187</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.590652748803134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-4.304234186622589</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.124698318053637</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.37724533482133</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.525356531143185</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.932811015120178</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6847266883493761</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.02450294917989604</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11.26465672644501</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.819475414596996</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.655811092563884</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.081682441390621</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3115755630151993</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.203615091671459</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.449124443196801</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.744278280116706</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-2.318640726749061</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.338136873512635</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.472857043007876</v>
       </c>
     </row>
   </sheetData>
